--- a/doc4phy/WisDragon/管理/个人报销记录/[模板]报销单.xlsx
+++ b/doc4phy/WisDragon/管理/个人报销记录/[模板]报销单.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+git\github\janetren.github.com\doc4phy\WisDragon\管理\个人报销记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="11340" windowHeight="6795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="付款" sheetId="1" r:id="rId1"/>
-    <sheet name="零星" sheetId="7" r:id="rId2"/>
-    <sheet name="每周报销" sheetId="4" r:id="rId3"/>
-    <sheet name="差旅申请" sheetId="8" r:id="rId4"/>
+    <sheet name="费用暂支单" sheetId="9" r:id="rId2"/>
+    <sheet name="零星" sheetId="7" r:id="rId3"/>
+    <sheet name="每周报销" sheetId="4" r:id="rId4"/>
+    <sheet name="差旅申请" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">差旅申请!$A$1:$P$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">差旅申请!$A$1:$P$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">费用暂支单!$A$1:$K$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">付款!$A$1:$K$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">零星!$A$1:$K$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">每周报销!$A$1:$AD$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">零星!$A$1:$K$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">每周报销!$A$1:$AD$48</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="159">
   <si>
     <t>现金</t>
   </si>
@@ -1460,6 +1467,51 @@
       <t>)</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>零和信息</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用暂支凭单</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总金额不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RMB5000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人住宿费用暂支</t>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1473,7 +1525,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="[DBNum2][$-804]General&quot;元&quot;&quot;正&quot;"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1676,6 +1728,31 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2142,7 +2219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2551,6 +2628,14 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2582,51 +2667,63 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2639,19 +2736,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2711,12 +2808,6 @@
     <xf numFmtId="176" fontId="19" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2728,6 +2819,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2878,7 +2975,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2889,6 +2991,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2922,7 +3027,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2930,6 +3035,16 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3777,9 +3892,9 @@
     </row>
     <row r="7" spans="1:41" ht="13.5" customHeight="1">
       <c r="A7" s="167"/>
-      <c r="B7" s="220"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
       <c r="E7" s="168"/>
       <c r="F7" s="181"/>
       <c r="G7" s="168"/>
@@ -3832,8 +3947,8 @@
         <v>145</v>
       </c>
       <c r="F8" s="186"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="230"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="234"/>
       <c r="I8" s="183" t="s">
         <v>127</v>
       </c>
@@ -3873,9 +3988,9 @@
     </row>
     <row r="9" spans="1:41" ht="12.75" customHeight="1">
       <c r="A9" s="102"/>
-      <c r="B9" s="226"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="228"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="102"/>
       <c r="F9" s="181"/>
       <c r="G9" s="168"/>
@@ -3965,12 +4080,12 @@
       <c r="A11" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="221" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="219"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="223"/>
       <c r="F11" s="142" t="s">
         <v>130</v>
       </c>
@@ -3981,8 +4096,8 @@
       <c r="I11" s="152"/>
       <c r="J11" s="152"/>
       <c r="K11" s="153"/>
-      <c r="M11" s="216"/>
-      <c r="N11" s="216"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="220"/>
       <c r="O11" s="99"/>
       <c r="P11" s="99"/>
       <c r="Q11" s="99"/>
@@ -4034,10 +4149,10 @@
     </row>
     <row r="13" spans="1:41" ht="24.75" customHeight="1">
       <c r="A13" s="215"/>
-      <c r="B13" s="222"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="224"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="228"/>
       <c r="F13" s="212"/>
       <c r="G13" s="107"/>
       <c r="H13" s="108"/>
@@ -4047,10 +4162,10 @@
     </row>
     <row r="14" spans="1:41" ht="24.75" customHeight="1">
       <c r="A14" s="213"/>
-      <c r="B14" s="225"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="224"/>
+      <c r="B14" s="229"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="228"/>
       <c r="F14" s="214"/>
       <c r="G14" s="107"/>
       <c r="H14" s="108"/>
@@ -4333,8 +4448,635 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" style="86" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21.75" customHeight="1">
+      <c r="A1" s="243" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="94"/>
+      <c r="H1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="245" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="95"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A3" s="219"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A4" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="259"/>
+      <c r="J4" s="259"/>
+      <c r="K4" s="259"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" ht="21.75" customHeight="1">
+      <c r="A5" s="254" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="227"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="228"/>
+    </row>
+    <row r="6" spans="1:13" ht="21" customHeight="1">
+      <c r="A6" s="216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="260" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="260" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="262"/>
+      <c r="I6" s="260" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="261"/>
+      <c r="K6" s="262"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A7" s="340">
+        <v>41389</v>
+      </c>
+      <c r="B7" s="339" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="250">
+        <v>4400</v>
+      </c>
+      <c r="H7" s="251"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="251"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A8" s="340"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="250"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="253"/>
+      <c r="K8" s="251"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A9" s="217"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="251"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A10" s="217"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="251"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A11" s="217"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="251"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A12" s="217"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="251"/>
+    </row>
+    <row r="13" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A13" s="217"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="251"/>
+    </row>
+    <row r="14" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="254" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="255"/>
+      <c r="G14" s="250">
+        <f>SUM(G7:G13)</f>
+        <v>4400</v>
+      </c>
+      <c r="H14" s="251"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="251"/>
+    </row>
+    <row r="15" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A15" s="50"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="235" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="236"/>
+      <c r="G15" s="239" t="str">
+        <f>IF(G14=0,"零",IF(G14-INT(G14)=0,TEXT(G14,"[DBNUM2]")&amp;"元整",IF(INT(G14)=0,IF(INT(G14*10)-G14*10=0,TEXT((INT(G14*10)-INT(G14)*10),"[DBNUM2]")&amp;"角整",IF(INT(G14*10)-INT(G14)*10=0,TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分",TEXT(INT(G14*10)-INT(G14)*10,"[DBNUM2]")&amp;"角"&amp;TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分")),IF(INT(G14*10)-G14*10=0,TEXT(INT(G14),"[DBNUM2]")&amp;"元"&amp;TEXT((INT(G14*10)-INT(G14)*10),"[DBNUM2]")&amp;"角整",TEXT(INT(G14),"[DBNUM2]")&amp;"元"&amp;IF(INT(G14*10)-INT(G14)*10=0,"零",TEXT(INT(G14*10)-INT(G14)*10,"[DBNUM2]")&amp;"角")&amp;TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分"))))</f>
+        <v>肆仟肆佰元整</v>
+      </c>
+      <c r="H15" s="239"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="240"/>
+    </row>
+    <row r="16" spans="1:13" ht="12" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="242"/>
+    </row>
+    <row r="17" spans="1:11" ht="15">
+      <c r="A17" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" ht="15">
+      <c r="A18" s="116"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="1:11" ht="15">
+      <c r="A19" s="116"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="A20" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="59"/>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="117"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="24" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:K16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+  </mergeCells>
+  <phoneticPr fontId="36" type="noConversion"/>
+  <pageMargins left="0.33" right="0.18" top="0.26" bottom="0.25" header="0.17" footer="0.16"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4398,9 +5140,9 @@
       <c r="H3" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1">
       <c r="A4" s="126" t="s">
@@ -4410,140 +5152,140 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="250"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="259"/>
+      <c r="J4" s="259"/>
+      <c r="K4" s="259"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="223"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="224"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="260" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="251" t="s">
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="260" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="252"/>
-      <c r="I6" s="251" t="s">
+      <c r="H6" s="262"/>
+      <c r="I6" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="253"/>
-      <c r="K6" s="252"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="262"/>
     </row>
     <row r="7" spans="1:13" ht="24.75" customHeight="1">
       <c r="A7" s="84"/>
-      <c r="B7" s="235"/>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="233"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="251"/>
     </row>
     <row r="8" spans="1:13" ht="24.75" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="235"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="250"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="253"/>
+      <c r="K8" s="251"/>
     </row>
     <row r="9" spans="1:13" ht="24.75" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="237"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="251"/>
     </row>
     <row r="10" spans="1:13" ht="24.75" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="235"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="233"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="251"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="233"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="251"/>
     </row>
     <row r="12" spans="1:13" ht="24.75" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="237"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="233"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="233"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="251"/>
     </row>
     <row r="13" spans="1:13" ht="24.75" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="233"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="251"/>
     </row>
     <row r="14" spans="1:13" ht="24.75" customHeight="1">
       <c r="A14" s="39" t="s">
@@ -4552,49 +5294,49 @@
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="53"/>
-      <c r="E14" s="246" t="s">
+      <c r="E14" s="254" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="247"/>
-      <c r="G14" s="234">
+      <c r="F14" s="255"/>
+      <c r="G14" s="250">
         <f>SUM(G7:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="233"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="251"/>
     </row>
     <row r="15" spans="1:13" ht="24.75" customHeight="1">
       <c r="A15" s="50"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="242" t="s">
+      <c r="E15" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="243"/>
-      <c r="G15" s="238" t="str">
+      <c r="F15" s="236"/>
+      <c r="G15" s="239" t="str">
         <f>IF(G14=0,"零",IF(G14-INT(G14)=0,TEXT(G14,"[DBNUM2]")&amp;"元整",IF(INT(G14)=0,IF(INT(G14*10)-G14*10=0,TEXT((INT(G14*10)-INT(G14)*10),"[DBNUM2]")&amp;"角整",IF(INT(G14*10)-INT(G14)*10=0,TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分",TEXT(INT(G14*10)-INT(G14)*10,"[DBNUM2]")&amp;"角"&amp;TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分")),IF(INT(G14*10)-G14*10=0,TEXT(INT(G14),"[DBNUM2]")&amp;"元"&amp;TEXT((INT(G14*10)-INT(G14)*10),"[DBNUM2]")&amp;"角整",TEXT(INT(G14),"[DBNUM2]")&amp;"元"&amp;IF(INT(G14*10)-INT(G14)*10=0,"零",TEXT(INT(G14*10)-INT(G14)*10,"[DBNUM2]")&amp;"角")&amp;TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分"))))</f>
         <v>零</v>
       </c>
-      <c r="H15" s="238"/>
-      <c r="I15" s="238"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="239"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="240"/>
     </row>
     <row r="16" spans="1:13" ht="12" customHeight="1">
       <c r="A16" s="51"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="245"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="240"/>
-      <c r="I16" s="240"/>
-      <c r="J16" s="240"/>
-      <c r="K16" s="241"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="242"/>
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="115" t="s">
@@ -4947,11 +5689,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:AD31"/>
     </sheetView>
   </sheetViews>
@@ -4998,10 +5740,10 @@
         <v>99</v>
       </c>
       <c r="R2" s="90"/>
-      <c r="S2" s="289"/>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="290"/>
+      <c r="S2" s="297"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="298"/>
       <c r="W2" s="23" t="s">
         <v>21</v>
       </c>
@@ -5033,9 +5775,9 @@
       </c>
       <c r="R3" s="92"/>
       <c r="S3" s="206"/>
-      <c r="T3" s="291"/>
-      <c r="U3" s="291"/>
-      <c r="V3" s="292"/>
+      <c r="T3" s="299"/>
+      <c r="U3" s="299"/>
+      <c r="V3" s="300"/>
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
@@ -5068,16 +5810,16 @@
         <v>146</v>
       </c>
       <c r="R4" s="90"/>
-      <c r="S4" s="293"/>
-      <c r="T4" s="294"/>
-      <c r="U4" s="294"/>
-      <c r="V4" s="295"/>
+      <c r="S4" s="301"/>
+      <c r="T4" s="302"/>
+      <c r="U4" s="302"/>
+      <c r="V4" s="303"/>
       <c r="W4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="310"/>
-      <c r="Z4" s="310"/>
-      <c r="AA4" s="311"/>
+      <c r="Y4" s="318"/>
+      <c r="Z4" s="318"/>
+      <c r="AA4" s="319"/>
       <c r="AB4" s="42" t="s">
         <v>9</v>
       </c>
@@ -5107,42 +5849,42 @@
       <c r="T5" s="200"/>
       <c r="U5" s="200"/>
       <c r="V5" s="201"/>
-      <c r="W5" s="312"/>
-      <c r="X5" s="313"/>
-      <c r="Y5" s="313"/>
-      <c r="Z5" s="313"/>
-      <c r="AA5" s="314"/>
+      <c r="W5" s="320"/>
+      <c r="X5" s="321"/>
+      <c r="Y5" s="321"/>
+      <c r="Z5" s="321"/>
+      <c r="AA5" s="322"/>
       <c r="AB5" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="255"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="218"/>
-      <c r="K6" s="255"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="218"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="256"/>
-      <c r="P6" s="218"/>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="256"/>
-      <c r="S6" s="218"/>
-      <c r="T6" s="255"/>
-      <c r="U6" s="256"/>
-      <c r="V6" s="218"/>
-      <c r="W6" s="255"/>
-      <c r="X6" s="256"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="264"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="263"/>
+      <c r="L6" s="264"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="263"/>
+      <c r="O6" s="264"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="263"/>
+      <c r="R6" s="264"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="263"/>
+      <c r="U6" s="264"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="264"/>
       <c r="Y6" s="36"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37"/>
@@ -5156,27 +5898,27 @@
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="301"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="302"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="301"/>
-      <c r="N7" s="302"/>
-      <c r="O7" s="303"/>
-      <c r="P7" s="298"/>
-      <c r="Q7" s="299"/>
-      <c r="R7" s="300"/>
-      <c r="S7" s="298"/>
-      <c r="T7" s="299"/>
-      <c r="U7" s="300"/>
-      <c r="V7" s="298"/>
-      <c r="W7" s="299"/>
-      <c r="X7" s="300"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="311"/>
+      <c r="J7" s="309"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="311"/>
+      <c r="M7" s="309"/>
+      <c r="N7" s="310"/>
+      <c r="O7" s="311"/>
+      <c r="P7" s="306"/>
+      <c r="Q7" s="307"/>
+      <c r="R7" s="308"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="307"/>
+      <c r="U7" s="308"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="307"/>
+      <c r="X7" s="308"/>
       <c r="Y7" s="45"/>
       <c r="AB7" s="45"/>
       <c r="AD7" s="57"/>
@@ -5229,8 +5971,8 @@
     </row>
     <row r="10" spans="1:30" ht="15">
       <c r="A10" s="17"/>
-      <c r="B10" s="289"/>
-      <c r="C10" s="290"/>
+      <c r="B10" s="297"/>
+      <c r="C10" s="298"/>
       <c r="D10" s="45"/>
       <c r="G10" s="45"/>
       <c r="J10" s="45"/>
@@ -5238,11 +5980,11 @@
       <c r="P10" s="45"/>
       <c r="S10" s="45"/>
       <c r="V10" s="45"/>
-      <c r="Y10" s="257" t="s">
+      <c r="Y10" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="258"/>
-      <c r="AA10" s="259"/>
+      <c r="Z10" s="266"/>
+      <c r="AA10" s="267"/>
       <c r="AB10" s="42" t="s">
         <v>18</v>
       </c>
@@ -5288,33 +6030,33 @@
         <v>36</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="269"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="269"/>
-      <c r="J12" s="267"/>
-      <c r="K12" s="268"/>
-      <c r="L12" s="269"/>
-      <c r="M12" s="267"/>
-      <c r="N12" s="268"/>
-      <c r="O12" s="269"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="267"/>
-      <c r="T12" s="268"/>
-      <c r="U12" s="269"/>
-      <c r="V12" s="267"/>
-      <c r="W12" s="268"/>
-      <c r="X12" s="269"/>
-      <c r="Y12" s="267">
+      <c r="D12" s="275"/>
+      <c r="E12" s="276"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="275"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="277"/>
+      <c r="J12" s="275"/>
+      <c r="K12" s="276"/>
+      <c r="L12" s="277"/>
+      <c r="M12" s="275"/>
+      <c r="N12" s="276"/>
+      <c r="O12" s="277"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="276"/>
+      <c r="R12" s="277"/>
+      <c r="S12" s="275"/>
+      <c r="T12" s="276"/>
+      <c r="U12" s="277"/>
+      <c r="V12" s="275"/>
+      <c r="W12" s="276"/>
+      <c r="X12" s="277"/>
+      <c r="Y12" s="275">
         <f>SUM(D12:X12)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="268"/>
-      <c r="AA12" s="269"/>
+      <c r="Z12" s="276"/>
+      <c r="AA12" s="277"/>
       <c r="AB12" s="19"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
@@ -5327,33 +6069,33 @@
         <v>37</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="267"/>
-      <c r="E13" s="268"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="288"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="288"/>
-      <c r="M13" s="286"/>
-      <c r="N13" s="287"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="286"/>
-      <c r="Q13" s="287"/>
-      <c r="R13" s="288"/>
-      <c r="S13" s="286"/>
-      <c r="T13" s="287"/>
-      <c r="U13" s="288"/>
-      <c r="V13" s="286"/>
-      <c r="W13" s="287"/>
-      <c r="X13" s="288"/>
-      <c r="Y13" s="267">
+      <c r="D13" s="275"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="295"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="295"/>
+      <c r="L13" s="296"/>
+      <c r="M13" s="294"/>
+      <c r="N13" s="295"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="294"/>
+      <c r="Q13" s="295"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="294"/>
+      <c r="T13" s="295"/>
+      <c r="U13" s="296"/>
+      <c r="V13" s="294"/>
+      <c r="W13" s="295"/>
+      <c r="X13" s="296"/>
+      <c r="Y13" s="275">
         <f t="shared" ref="Y13:Y23" si="0">SUM(D13:X13)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="268"/>
-      <c r="AA13" s="269"/>
+      <c r="Z13" s="276"/>
+      <c r="AA13" s="277"/>
       <c r="AB13" s="19"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
@@ -5366,33 +6108,33 @@
         <v>38</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="267"/>
-      <c r="E14" s="268"/>
-      <c r="F14" s="269"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="288"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="286"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="288"/>
-      <c r="P14" s="286"/>
-      <c r="Q14" s="287"/>
-      <c r="R14" s="288"/>
-      <c r="S14" s="286"/>
-      <c r="T14" s="287"/>
-      <c r="U14" s="288"/>
-      <c r="V14" s="286"/>
-      <c r="W14" s="287"/>
-      <c r="X14" s="288"/>
-      <c r="Y14" s="267">
+      <c r="D14" s="275"/>
+      <c r="E14" s="276"/>
+      <c r="F14" s="277"/>
+      <c r="G14" s="294"/>
+      <c r="H14" s="295"/>
+      <c r="I14" s="296"/>
+      <c r="J14" s="294"/>
+      <c r="K14" s="295"/>
+      <c r="L14" s="296"/>
+      <c r="M14" s="294"/>
+      <c r="N14" s="295"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="294"/>
+      <c r="Q14" s="295"/>
+      <c r="R14" s="296"/>
+      <c r="S14" s="294"/>
+      <c r="T14" s="295"/>
+      <c r="U14" s="296"/>
+      <c r="V14" s="294"/>
+      <c r="W14" s="295"/>
+      <c r="X14" s="296"/>
+      <c r="Y14" s="275">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="268"/>
-      <c r="AA14" s="269"/>
+      <c r="Z14" s="276"/>
+      <c r="AA14" s="277"/>
       <c r="AB14" s="19"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
@@ -5405,33 +6147,33 @@
         <v>39</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268"/>
-      <c r="F15" s="269"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="288"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="288"/>
-      <c r="M15" s="286"/>
-      <c r="N15" s="287"/>
-      <c r="O15" s="288"/>
-      <c r="P15" s="286"/>
-      <c r="Q15" s="287"/>
-      <c r="R15" s="288"/>
-      <c r="S15" s="286"/>
-      <c r="T15" s="287"/>
-      <c r="U15" s="288"/>
-      <c r="V15" s="286"/>
-      <c r="W15" s="287"/>
-      <c r="X15" s="288"/>
-      <c r="Y15" s="267">
+      <c r="D15" s="275"/>
+      <c r="E15" s="276"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="295"/>
+      <c r="I15" s="296"/>
+      <c r="J15" s="294"/>
+      <c r="K15" s="295"/>
+      <c r="L15" s="296"/>
+      <c r="M15" s="294"/>
+      <c r="N15" s="295"/>
+      <c r="O15" s="296"/>
+      <c r="P15" s="294"/>
+      <c r="Q15" s="295"/>
+      <c r="R15" s="296"/>
+      <c r="S15" s="294"/>
+      <c r="T15" s="295"/>
+      <c r="U15" s="296"/>
+      <c r="V15" s="294"/>
+      <c r="W15" s="295"/>
+      <c r="X15" s="296"/>
+      <c r="Y15" s="275">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="268"/>
-      <c r="AA15" s="269"/>
+      <c r="Z15" s="276"/>
+      <c r="AA15" s="277"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
@@ -5444,33 +6186,33 @@
         <v>44</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="267"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="288"/>
-      <c r="J16" s="286"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="288"/>
-      <c r="M16" s="286"/>
-      <c r="N16" s="287"/>
-      <c r="O16" s="288"/>
-      <c r="P16" s="286"/>
-      <c r="Q16" s="287"/>
-      <c r="R16" s="288"/>
-      <c r="S16" s="286"/>
-      <c r="T16" s="287"/>
-      <c r="U16" s="288"/>
-      <c r="V16" s="286"/>
-      <c r="W16" s="287"/>
-      <c r="X16" s="288"/>
-      <c r="Y16" s="267">
+      <c r="D16" s="275"/>
+      <c r="E16" s="276"/>
+      <c r="F16" s="277"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="295"/>
+      <c r="I16" s="296"/>
+      <c r="J16" s="294"/>
+      <c r="K16" s="295"/>
+      <c r="L16" s="296"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="295"/>
+      <c r="O16" s="296"/>
+      <c r="P16" s="294"/>
+      <c r="Q16" s="295"/>
+      <c r="R16" s="296"/>
+      <c r="S16" s="294"/>
+      <c r="T16" s="295"/>
+      <c r="U16" s="296"/>
+      <c r="V16" s="294"/>
+      <c r="W16" s="295"/>
+      <c r="X16" s="296"/>
+      <c r="Y16" s="275">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="268"/>
-      <c r="AA16" s="269"/>
+      <c r="Z16" s="276"/>
+      <c r="AA16" s="277"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -5481,54 +6223,54 @@
         <v>35</v>
       </c>
       <c r="C17" s="202"/>
-      <c r="D17" s="271">
+      <c r="D17" s="279">
         <f>SUM(D12:F16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="272"/>
-      <c r="F17" s="273"/>
-      <c r="G17" s="271">
+      <c r="E17" s="280"/>
+      <c r="F17" s="281"/>
+      <c r="G17" s="279">
         <f>SUM(G12:I16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="272"/>
-      <c r="I17" s="273"/>
-      <c r="J17" s="271">
+      <c r="H17" s="280"/>
+      <c r="I17" s="281"/>
+      <c r="J17" s="279">
         <f>SUM(J12:L16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="272"/>
-      <c r="L17" s="273"/>
-      <c r="M17" s="271">
+      <c r="K17" s="280"/>
+      <c r="L17" s="281"/>
+      <c r="M17" s="279">
         <f>SUM(M12:O16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="272"/>
-      <c r="O17" s="273"/>
-      <c r="P17" s="271">
+      <c r="N17" s="280"/>
+      <c r="O17" s="281"/>
+      <c r="P17" s="279">
         <f>SUM(P12:R16)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="272"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="271">
+      <c r="Q17" s="280"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="279">
         <f>SUM(S12:U16)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="272"/>
-      <c r="U17" s="273"/>
-      <c r="V17" s="271">
+      <c r="T17" s="280"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="279">
         <f>SUM(V12:X16)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="272"/>
-      <c r="X17" s="273"/>
-      <c r="Y17" s="271">
+      <c r="W17" s="280"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="279">
         <f>SUM(Y12:AA16)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="272"/>
-      <c r="AA17" s="273"/>
+      <c r="Z17" s="280"/>
+      <c r="AA17" s="281"/>
       <c r="AB17" s="19"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
@@ -5541,33 +6283,33 @@
         <v>12</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="286"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="286"/>
-      <c r="K18" s="287"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="286"/>
-      <c r="N18" s="287"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="286"/>
-      <c r="Q18" s="287"/>
-      <c r="R18" s="288"/>
-      <c r="S18" s="286"/>
-      <c r="T18" s="287"/>
-      <c r="U18" s="288"/>
-      <c r="V18" s="286"/>
-      <c r="W18" s="287"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="267">
+      <c r="D18" s="294"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="296"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="295"/>
+      <c r="I18" s="296"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="295"/>
+      <c r="L18" s="296"/>
+      <c r="M18" s="294"/>
+      <c r="N18" s="295"/>
+      <c r="O18" s="296"/>
+      <c r="P18" s="294"/>
+      <c r="Q18" s="295"/>
+      <c r="R18" s="296"/>
+      <c r="S18" s="294"/>
+      <c r="T18" s="295"/>
+      <c r="U18" s="296"/>
+      <c r="V18" s="294"/>
+      <c r="W18" s="295"/>
+      <c r="X18" s="296"/>
+      <c r="Y18" s="275">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="268"/>
-      <c r="AA18" s="269"/>
+      <c r="Z18" s="276"/>
+      <c r="AA18" s="277"/>
       <c r="AB18" s="19"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
@@ -5581,33 +6323,33 @@
         <v>97</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="286"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="287"/>
-      <c r="I19" s="288"/>
-      <c r="J19" s="286"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="286"/>
-      <c r="N19" s="287"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="286"/>
-      <c r="Q19" s="287"/>
-      <c r="R19" s="288"/>
-      <c r="S19" s="286"/>
-      <c r="T19" s="287"/>
-      <c r="U19" s="288"/>
-      <c r="V19" s="286"/>
-      <c r="W19" s="287"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="267">
+      <c r="D19" s="294"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="294"/>
+      <c r="H19" s="295"/>
+      <c r="I19" s="296"/>
+      <c r="J19" s="294"/>
+      <c r="K19" s="295"/>
+      <c r="L19" s="296"/>
+      <c r="M19" s="294"/>
+      <c r="N19" s="295"/>
+      <c r="O19" s="296"/>
+      <c r="P19" s="294"/>
+      <c r="Q19" s="295"/>
+      <c r="R19" s="296"/>
+      <c r="S19" s="294"/>
+      <c r="T19" s="295"/>
+      <c r="U19" s="296"/>
+      <c r="V19" s="294"/>
+      <c r="W19" s="295"/>
+      <c r="X19" s="296"/>
+      <c r="Y19" s="275">
         <f>SUM(D19:X19)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="268"/>
-      <c r="AA19" s="269"/>
+      <c r="Z19" s="276"/>
+      <c r="AA19" s="277"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
@@ -5621,33 +6363,33 @@
         <v>98</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="267"/>
-      <c r="E20" s="268"/>
-      <c r="F20" s="269"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="288"/>
-      <c r="J20" s="286"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="286"/>
-      <c r="N20" s="287"/>
-      <c r="O20" s="288"/>
-      <c r="P20" s="286"/>
-      <c r="Q20" s="287"/>
-      <c r="R20" s="288"/>
-      <c r="S20" s="286"/>
-      <c r="T20" s="287"/>
-      <c r="U20" s="288"/>
-      <c r="V20" s="286"/>
-      <c r="W20" s="287"/>
-      <c r="X20" s="288"/>
-      <c r="Y20" s="267">
+      <c r="D20" s="275"/>
+      <c r="E20" s="276"/>
+      <c r="F20" s="277"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="295"/>
+      <c r="I20" s="296"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="295"/>
+      <c r="L20" s="296"/>
+      <c r="M20" s="294"/>
+      <c r="N20" s="295"/>
+      <c r="O20" s="296"/>
+      <c r="P20" s="294"/>
+      <c r="Q20" s="295"/>
+      <c r="R20" s="296"/>
+      <c r="S20" s="294"/>
+      <c r="T20" s="295"/>
+      <c r="U20" s="296"/>
+      <c r="V20" s="294"/>
+      <c r="W20" s="295"/>
+      <c r="X20" s="296"/>
+      <c r="Y20" s="275">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="268"/>
-      <c r="AA20" s="269"/>
+      <c r="Z20" s="276"/>
+      <c r="AA20" s="277"/>
       <c r="AB20" s="19"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
@@ -5661,33 +6403,33 @@
         <v>43</v>
       </c>
       <c r="C21" s="16"/>
-      <c r="D21" s="267"/>
-      <c r="E21" s="268"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="288"/>
-      <c r="J21" s="286"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="288"/>
-      <c r="M21" s="286"/>
-      <c r="N21" s="287"/>
-      <c r="O21" s="288"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="287"/>
-      <c r="R21" s="288"/>
-      <c r="S21" s="286"/>
-      <c r="T21" s="287"/>
-      <c r="U21" s="288"/>
-      <c r="V21" s="286"/>
-      <c r="W21" s="287"/>
-      <c r="X21" s="288"/>
-      <c r="Y21" s="267">
+      <c r="D21" s="275"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="277"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="295"/>
+      <c r="I21" s="296"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="295"/>
+      <c r="L21" s="296"/>
+      <c r="M21" s="294"/>
+      <c r="N21" s="295"/>
+      <c r="O21" s="296"/>
+      <c r="P21" s="294"/>
+      <c r="Q21" s="295"/>
+      <c r="R21" s="296"/>
+      <c r="S21" s="294"/>
+      <c r="T21" s="295"/>
+      <c r="U21" s="296"/>
+      <c r="V21" s="294"/>
+      <c r="W21" s="295"/>
+      <c r="X21" s="296"/>
+      <c r="Y21" s="275">
         <f>SUM(D21:X21)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="268"/>
-      <c r="AA21" s="269"/>
+      <c r="Z21" s="276"/>
+      <c r="AA21" s="277"/>
       <c r="AB21" s="19"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
@@ -5697,37 +6439,37 @@
       <c r="A22" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="331" t="s">
+      <c r="B22" s="218" t="s">
         <v>150</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="267"/>
-      <c r="E22" s="268"/>
-      <c r="F22" s="269"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="286"/>
-      <c r="K22" s="287"/>
-      <c r="L22" s="288"/>
-      <c r="M22" s="286"/>
-      <c r="N22" s="287"/>
-      <c r="O22" s="288"/>
-      <c r="P22" s="286"/>
-      <c r="Q22" s="287"/>
-      <c r="R22" s="288"/>
-      <c r="S22" s="286"/>
-      <c r="T22" s="287"/>
-      <c r="U22" s="288"/>
-      <c r="V22" s="267"/>
-      <c r="W22" s="268"/>
-      <c r="X22" s="269"/>
-      <c r="Y22" s="267">
+      <c r="D22" s="275"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="277"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="295"/>
+      <c r="I22" s="296"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="295"/>
+      <c r="L22" s="296"/>
+      <c r="M22" s="294"/>
+      <c r="N22" s="295"/>
+      <c r="O22" s="296"/>
+      <c r="P22" s="294"/>
+      <c r="Q22" s="295"/>
+      <c r="R22" s="296"/>
+      <c r="S22" s="294"/>
+      <c r="T22" s="295"/>
+      <c r="U22" s="296"/>
+      <c r="V22" s="275"/>
+      <c r="W22" s="276"/>
+      <c r="X22" s="277"/>
+      <c r="Y22" s="275">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="268"/>
-      <c r="AA22" s="269"/>
+      <c r="Z22" s="276"/>
+      <c r="AA22" s="277"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -5741,33 +6483,33 @@
         <v>30</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="268"/>
-      <c r="F23" s="269"/>
-      <c r="G23" s="267"/>
-      <c r="H23" s="268"/>
-      <c r="I23" s="269"/>
-      <c r="J23" s="267"/>
-      <c r="K23" s="268"/>
-      <c r="L23" s="269"/>
-      <c r="M23" s="267"/>
-      <c r="N23" s="268"/>
-      <c r="O23" s="269"/>
-      <c r="P23" s="267"/>
-      <c r="Q23" s="268"/>
-      <c r="R23" s="269"/>
-      <c r="S23" s="267"/>
-      <c r="T23" s="268"/>
-      <c r="U23" s="269"/>
-      <c r="V23" s="267"/>
-      <c r="W23" s="268"/>
-      <c r="X23" s="269"/>
-      <c r="Y23" s="267">
+      <c r="D23" s="275"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="277"/>
+      <c r="G23" s="275"/>
+      <c r="H23" s="276"/>
+      <c r="I23" s="277"/>
+      <c r="J23" s="275"/>
+      <c r="K23" s="276"/>
+      <c r="L23" s="277"/>
+      <c r="M23" s="275"/>
+      <c r="N23" s="276"/>
+      <c r="O23" s="277"/>
+      <c r="P23" s="275"/>
+      <c r="Q23" s="276"/>
+      <c r="R23" s="277"/>
+      <c r="S23" s="275"/>
+      <c r="T23" s="276"/>
+      <c r="U23" s="277"/>
+      <c r="V23" s="275"/>
+      <c r="W23" s="276"/>
+      <c r="X23" s="277"/>
+      <c r="Y23" s="275">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="268"/>
-      <c r="AA23" s="269"/>
+      <c r="Z23" s="276"/>
+      <c r="AA23" s="277"/>
       <c r="AB23" s="19"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -5780,33 +6522,33 @@
         <v>31</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="267"/>
-      <c r="E24" s="268"/>
-      <c r="F24" s="269"/>
-      <c r="G24" s="267"/>
-      <c r="H24" s="268"/>
-      <c r="I24" s="269"/>
-      <c r="J24" s="267"/>
-      <c r="K24" s="268"/>
-      <c r="L24" s="269"/>
-      <c r="M24" s="270"/>
-      <c r="N24" s="268"/>
-      <c r="O24" s="269"/>
-      <c r="P24" s="267"/>
-      <c r="Q24" s="268"/>
-      <c r="R24" s="269"/>
-      <c r="S24" s="267"/>
-      <c r="T24" s="268"/>
-      <c r="U24" s="269"/>
-      <c r="V24" s="267"/>
-      <c r="W24" s="268"/>
-      <c r="X24" s="269"/>
-      <c r="Y24" s="267">
+      <c r="D24" s="275"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="275"/>
+      <c r="H24" s="276"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="275"/>
+      <c r="K24" s="276"/>
+      <c r="L24" s="277"/>
+      <c r="M24" s="278"/>
+      <c r="N24" s="276"/>
+      <c r="O24" s="277"/>
+      <c r="P24" s="275"/>
+      <c r="Q24" s="276"/>
+      <c r="R24" s="277"/>
+      <c r="S24" s="275"/>
+      <c r="T24" s="276"/>
+      <c r="U24" s="277"/>
+      <c r="V24" s="275"/>
+      <c r="W24" s="276"/>
+      <c r="X24" s="277"/>
+      <c r="Y24" s="275">
         <f>V24+S24+P24+M24+J24+G24+D24</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="268"/>
-      <c r="AA24" s="269"/>
+      <c r="Z24" s="276"/>
+      <c r="AA24" s="277"/>
       <c r="AB24" s="19"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
@@ -5817,59 +6559,59 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="267">
+      <c r="D25" s="275">
         <f>SUM(D17:F24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="268"/>
-      <c r="F25" s="269"/>
-      <c r="G25" s="267">
+      <c r="E25" s="276"/>
+      <c r="F25" s="277"/>
+      <c r="G25" s="275">
         <f>SUM(G17:I24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="268"/>
-      <c r="I25" s="269"/>
-      <c r="J25" s="267">
+      <c r="H25" s="276"/>
+      <c r="I25" s="277"/>
+      <c r="J25" s="275">
         <f>SUM(J17:L24)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="268"/>
-      <c r="L25" s="269"/>
-      <c r="M25" s="267">
+      <c r="K25" s="276"/>
+      <c r="L25" s="277"/>
+      <c r="M25" s="275">
         <f>SUM(M17:O24)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="268"/>
-      <c r="O25" s="269"/>
-      <c r="P25" s="267">
+      <c r="N25" s="276"/>
+      <c r="O25" s="277"/>
+      <c r="P25" s="275">
         <f>SUM(P17:R24)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="268"/>
-      <c r="R25" s="269"/>
-      <c r="S25" s="267">
+      <c r="Q25" s="276"/>
+      <c r="R25" s="277"/>
+      <c r="S25" s="275">
         <f>SUM(S17:U24)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="268"/>
-      <c r="U25" s="269"/>
-      <c r="V25" s="267">
+      <c r="T25" s="276"/>
+      <c r="U25" s="277"/>
+      <c r="V25" s="275">
         <f>SUM(V17:X24)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="268"/>
-      <c r="X25" s="269"/>
+      <c r="W25" s="276"/>
+      <c r="X25" s="277"/>
       <c r="Y25" s="20" t="s">
         <v>92</v>
       </c>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
-      <c r="AB25" s="276">
+      <c r="AB25" s="282">
         <f>SUM(Y17:Y24)</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="277"/>
-      <c r="AD25" s="277"/>
+      <c r="AC25" s="283"/>
+      <c r="AD25" s="283"/>
     </row>
     <row r="26" spans="1:32" ht="18" customHeight="1">
       <c r="A26" s="43" t="s">
@@ -5877,27 +6619,27 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="280"/>
-      <c r="E26" s="281"/>
-      <c r="F26" s="281"/>
-      <c r="G26" s="281"/>
-      <c r="H26" s="281"/>
-      <c r="I26" s="281"/>
-      <c r="J26" s="281"/>
-      <c r="K26" s="281"/>
-      <c r="L26" s="281"/>
-      <c r="M26" s="281"/>
-      <c r="N26" s="281"/>
-      <c r="O26" s="281"/>
-      <c r="P26" s="281"/>
-      <c r="Q26" s="281"/>
-      <c r="R26" s="281"/>
-      <c r="S26" s="281"/>
-      <c r="T26" s="281"/>
-      <c r="U26" s="281"/>
-      <c r="V26" s="281"/>
-      <c r="W26" s="281"/>
-      <c r="X26" s="282"/>
+      <c r="D26" s="288"/>
+      <c r="E26" s="289"/>
+      <c r="F26" s="289"/>
+      <c r="G26" s="289"/>
+      <c r="H26" s="289"/>
+      <c r="I26" s="289"/>
+      <c r="J26" s="289"/>
+      <c r="K26" s="289"/>
+      <c r="L26" s="289"/>
+      <c r="M26" s="289"/>
+      <c r="N26" s="289"/>
+      <c r="O26" s="289"/>
+      <c r="P26" s="289"/>
+      <c r="Q26" s="289"/>
+      <c r="R26" s="289"/>
+      <c r="S26" s="289"/>
+      <c r="T26" s="289"/>
+      <c r="U26" s="289"/>
+      <c r="V26" s="289"/>
+      <c r="W26" s="289"/>
+      <c r="X26" s="290"/>
       <c r="Y26" s="20" t="s">
         <v>22</v>
       </c>
@@ -5910,20 +6652,20 @@
     <row r="27" spans="1:32" ht="18" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="308"/>
-      <c r="D27" s="309"/>
-      <c r="E27" s="309"/>
-      <c r="F27" s="309"/>
-      <c r="G27" s="309"/>
-      <c r="H27" s="309"/>
-      <c r="I27" s="309"/>
-      <c r="J27" s="309"/>
-      <c r="K27" s="309"/>
-      <c r="L27" s="309"/>
-      <c r="M27" s="309"/>
-      <c r="N27" s="309"/>
-      <c r="O27" s="309"/>
-      <c r="P27" s="309"/>
+      <c r="C27" s="316"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="317"/>
+      <c r="F27" s="317"/>
+      <c r="G27" s="317"/>
+      <c r="H27" s="317"/>
+      <c r="I27" s="317"/>
+      <c r="J27" s="317"/>
+      <c r="K27" s="317"/>
+      <c r="L27" s="317"/>
+      <c r="M27" s="317"/>
+      <c r="N27" s="317"/>
+      <c r="O27" s="317"/>
+      <c r="P27" s="317"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -5948,29 +6690,29 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="283" t="str">
+      <c r="E28" s="291" t="str">
         <f>IF(AB25=0,"零",IF(AB25-INT(AB25)=0,TEXT(AB25,"[DBNUM2]")&amp;"元整",IF(INT(AB25)=0,IF(INT(AB25*10)-AB25*10=0,TEXT((INT(AB25*10)-INT(AB25)*10),"[DBNUM2]")&amp;"角整",IF(INT(AB25*10)-INT(AB25)*10=0,TEXT(RIGHT(AB25,1),"[DBNUM2]")&amp;"分",TEXT(INT(AB25*10)-INT(AB25)*10,"[DBNUM2]")&amp;"角"&amp;TEXT(RIGHT(AB25,1),"[DBNUM2]")&amp;"分")),IF(INT(AB25*10)-AB25*10=0,TEXT(INT(AB25),"[DBNUM2]")&amp;"元"&amp;TEXT((INT(AB25*10)-INT(AB25)*10),"[DBNUM2]")&amp;"角整",TEXT(INT(AB25),"[DBNUM2]")&amp;"元"&amp;IF(INT(AB25*10)-INT(AB25)*10=0,"零",TEXT(INT(AB25*10)-INT(AB25)*10,"[DBNUM2]")&amp;"角")&amp;TEXT(RIGHT(AB25,1),"[DBNUM2]")&amp;"分"))))</f>
         <v>零</v>
       </c>
-      <c r="F28" s="284"/>
-      <c r="G28" s="284"/>
-      <c r="H28" s="284"/>
-      <c r="I28" s="284"/>
-      <c r="J28" s="284"/>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="284"/>
-      <c r="N28" s="284"/>
-      <c r="O28" s="284"/>
-      <c r="P28" s="284"/>
-      <c r="Q28" s="284"/>
-      <c r="R28" s="284"/>
-      <c r="S28" s="284"/>
-      <c r="T28" s="284"/>
-      <c r="U28" s="284"/>
-      <c r="V28" s="284"/>
-      <c r="W28" s="284"/>
-      <c r="X28" s="285"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="292"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="292"/>
+      <c r="J28" s="292"/>
+      <c r="K28" s="292"/>
+      <c r="L28" s="292"/>
+      <c r="M28" s="292"/>
+      <c r="N28" s="292"/>
+      <c r="O28" s="292"/>
+      <c r="P28" s="292"/>
+      <c r="Q28" s="292"/>
+      <c r="R28" s="292"/>
+      <c r="S28" s="292"/>
+      <c r="T28" s="292"/>
+      <c r="U28" s="292"/>
+      <c r="V28" s="292"/>
+      <c r="W28" s="292"/>
+      <c r="X28" s="293"/>
       <c r="Y28" s="20" t="s">
         <v>24</v>
       </c>
@@ -6007,238 +6749,238 @@
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
-      <c r="Y29" s="315"/>
-      <c r="Z29" s="315"/>
-      <c r="AA29" s="315"/>
-      <c r="AB29" s="315"/>
-      <c r="AC29" s="315"/>
-      <c r="AD29" s="315"/>
+      <c r="Y29" s="323"/>
+      <c r="Z29" s="323"/>
+      <c r="AA29" s="323"/>
+      <c r="AB29" s="323"/>
+      <c r="AC29" s="323"/>
+      <c r="AD29" s="323"/>
     </row>
     <row r="30" spans="1:32" ht="18" customHeight="1">
-      <c r="A30" s="278"/>
-      <c r="B30" s="279"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="279"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
-      <c r="H30" s="279"/>
-      <c r="I30" s="279"/>
-      <c r="J30" s="279"/>
-      <c r="K30" s="279"/>
-      <c r="L30" s="279"/>
-      <c r="M30" s="279"/>
-      <c r="N30" s="279"/>
-      <c r="O30" s="279"/>
-      <c r="P30" s="279"/>
-      <c r="Q30" s="279"/>
-      <c r="R30" s="279"/>
-      <c r="S30" s="279"/>
-      <c r="T30" s="279"/>
-      <c r="U30" s="279"/>
-      <c r="V30" s="279"/>
-      <c r="W30" s="279"/>
-      <c r="X30" s="279"/>
-      <c r="Y30" s="279"/>
-      <c r="Z30" s="279"/>
-      <c r="AA30" s="279"/>
-      <c r="AB30" s="279"/>
-      <c r="AC30" s="279"/>
-      <c r="AD30" s="279"/>
+      <c r="A30" s="284"/>
+      <c r="B30" s="285"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="285"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="285"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="285"/>
+      <c r="K30" s="285"/>
+      <c r="L30" s="285"/>
+      <c r="M30" s="285"/>
+      <c r="N30" s="285"/>
+      <c r="O30" s="285"/>
+      <c r="P30" s="285"/>
+      <c r="Q30" s="285"/>
+      <c r="R30" s="285"/>
+      <c r="S30" s="285"/>
+      <c r="T30" s="285"/>
+      <c r="U30" s="285"/>
+      <c r="V30" s="285"/>
+      <c r="W30" s="285"/>
+      <c r="X30" s="285"/>
+      <c r="Y30" s="285"/>
+      <c r="Z30" s="285"/>
+      <c r="AA30" s="285"/>
+      <c r="AB30" s="285"/>
+      <c r="AC30" s="285"/>
+      <c r="AD30" s="285"/>
     </row>
     <row r="31" spans="1:32" ht="18" customHeight="1">
-      <c r="A31" s="278"/>
-      <c r="B31" s="279"/>
-      <c r="C31" s="279"/>
-      <c r="D31" s="279"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="279"/>
-      <c r="G31" s="279"/>
-      <c r="H31" s="279"/>
-      <c r="I31" s="279"/>
-      <c r="J31" s="279"/>
-      <c r="K31" s="279"/>
-      <c r="L31" s="279"/>
-      <c r="M31" s="279"/>
-      <c r="N31" s="279"/>
-      <c r="O31" s="279"/>
-      <c r="P31" s="279"/>
-      <c r="Q31" s="279"/>
-      <c r="R31" s="279"/>
-      <c r="S31" s="279"/>
-      <c r="T31" s="279"/>
-      <c r="U31" s="279"/>
-      <c r="V31" s="279"/>
-      <c r="W31" s="279"/>
-      <c r="X31" s="279"/>
-      <c r="Y31" s="279"/>
-      <c r="Z31" s="279"/>
-      <c r="AA31" s="279"/>
-      <c r="AB31" s="279"/>
-      <c r="AC31" s="279"/>
-      <c r="AD31" s="279"/>
+      <c r="A31" s="284"/>
+      <c r="B31" s="285"/>
+      <c r="C31" s="285"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="285"/>
+      <c r="H31" s="285"/>
+      <c r="I31" s="285"/>
+      <c r="J31" s="285"/>
+      <c r="K31" s="285"/>
+      <c r="L31" s="285"/>
+      <c r="M31" s="285"/>
+      <c r="N31" s="285"/>
+      <c r="O31" s="285"/>
+      <c r="P31" s="285"/>
+      <c r="Q31" s="285"/>
+      <c r="R31" s="285"/>
+      <c r="S31" s="285"/>
+      <c r="T31" s="285"/>
+      <c r="U31" s="285"/>
+      <c r="V31" s="285"/>
+      <c r="W31" s="285"/>
+      <c r="X31" s="285"/>
+      <c r="Y31" s="285"/>
+      <c r="Z31" s="285"/>
+      <c r="AA31" s="285"/>
+      <c r="AB31" s="285"/>
+      <c r="AC31" s="285"/>
+      <c r="AD31" s="285"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1">
-      <c r="A32" s="304"/>
-      <c r="B32" s="279"/>
-      <c r="C32" s="279"/>
-      <c r="D32" s="279"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="279"/>
-      <c r="G32" s="279"/>
-      <c r="H32" s="279"/>
-      <c r="I32" s="279"/>
-      <c r="J32" s="279"/>
-      <c r="K32" s="279"/>
-      <c r="L32" s="279"/>
-      <c r="M32" s="279"/>
-      <c r="N32" s="279"/>
-      <c r="O32" s="279"/>
-      <c r="P32" s="279"/>
-      <c r="Q32" s="279"/>
-      <c r="R32" s="279"/>
-      <c r="S32" s="279"/>
-      <c r="T32" s="279"/>
-      <c r="U32" s="279"/>
-      <c r="V32" s="279"/>
-      <c r="W32" s="279"/>
-      <c r="X32" s="279"/>
-      <c r="Y32" s="279"/>
-      <c r="Z32" s="279"/>
-      <c r="AA32" s="279"/>
-      <c r="AB32" s="279"/>
-      <c r="AC32" s="279"/>
-      <c r="AD32" s="279"/>
+      <c r="A32" s="312"/>
+      <c r="B32" s="285"/>
+      <c r="C32" s="285"/>
+      <c r="D32" s="285"/>
+      <c r="E32" s="285"/>
+      <c r="F32" s="285"/>
+      <c r="G32" s="285"/>
+      <c r="H32" s="285"/>
+      <c r="I32" s="285"/>
+      <c r="J32" s="285"/>
+      <c r="K32" s="285"/>
+      <c r="L32" s="285"/>
+      <c r="M32" s="285"/>
+      <c r="N32" s="285"/>
+      <c r="O32" s="285"/>
+      <c r="P32" s="285"/>
+      <c r="Q32" s="285"/>
+      <c r="R32" s="285"/>
+      <c r="S32" s="285"/>
+      <c r="T32" s="285"/>
+      <c r="U32" s="285"/>
+      <c r="V32" s="285"/>
+      <c r="W32" s="285"/>
+      <c r="X32" s="285"/>
+      <c r="Y32" s="285"/>
+      <c r="Z32" s="285"/>
+      <c r="AA32" s="285"/>
+      <c r="AB32" s="285"/>
+      <c r="AC32" s="285"/>
+      <c r="AD32" s="285"/>
     </row>
     <row r="33" spans="1:31" ht="18" customHeight="1">
-      <c r="A33" s="304"/>
-      <c r="B33" s="279"/>
-      <c r="C33" s="279"/>
-      <c r="D33" s="279"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="279"/>
-      <c r="G33" s="279"/>
-      <c r="H33" s="279"/>
-      <c r="I33" s="279"/>
-      <c r="J33" s="279"/>
-      <c r="K33" s="279"/>
-      <c r="L33" s="279"/>
-      <c r="M33" s="279"/>
-      <c r="N33" s="279"/>
-      <c r="O33" s="279"/>
-      <c r="P33" s="279"/>
-      <c r="Q33" s="279"/>
-      <c r="R33" s="279"/>
-      <c r="S33" s="279"/>
-      <c r="T33" s="279"/>
-      <c r="U33" s="279"/>
-      <c r="V33" s="279"/>
-      <c r="W33" s="279"/>
-      <c r="X33" s="279"/>
-      <c r="Y33" s="279"/>
-      <c r="Z33" s="279"/>
-      <c r="AA33" s="279"/>
-      <c r="AB33" s="279"/>
-      <c r="AC33" s="279"/>
-      <c r="AD33" s="279"/>
+      <c r="A33" s="312"/>
+      <c r="B33" s="285"/>
+      <c r="C33" s="285"/>
+      <c r="D33" s="285"/>
+      <c r="E33" s="285"/>
+      <c r="F33" s="285"/>
+      <c r="G33" s="285"/>
+      <c r="H33" s="285"/>
+      <c r="I33" s="285"/>
+      <c r="J33" s="285"/>
+      <c r="K33" s="285"/>
+      <c r="L33" s="285"/>
+      <c r="M33" s="285"/>
+      <c r="N33" s="285"/>
+      <c r="O33" s="285"/>
+      <c r="P33" s="285"/>
+      <c r="Q33" s="285"/>
+      <c r="R33" s="285"/>
+      <c r="S33" s="285"/>
+      <c r="T33" s="285"/>
+      <c r="U33" s="285"/>
+      <c r="V33" s="285"/>
+      <c r="W33" s="285"/>
+      <c r="X33" s="285"/>
+      <c r="Y33" s="285"/>
+      <c r="Z33" s="285"/>
+      <c r="AA33" s="285"/>
+      <c r="AB33" s="285"/>
+      <c r="AC33" s="285"/>
+      <c r="AD33" s="285"/>
     </row>
     <row r="34" spans="1:31" ht="18" customHeight="1">
-      <c r="A34" s="304"/>
-      <c r="B34" s="279"/>
-      <c r="C34" s="279"/>
-      <c r="D34" s="279"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="279"/>
-      <c r="H34" s="279"/>
-      <c r="I34" s="279"/>
-      <c r="J34" s="279"/>
-      <c r="K34" s="279"/>
-      <c r="L34" s="279"/>
-      <c r="M34" s="279"/>
-      <c r="N34" s="279"/>
-      <c r="O34" s="279"/>
-      <c r="P34" s="279"/>
-      <c r="Q34" s="279"/>
-      <c r="R34" s="279"/>
-      <c r="S34" s="279"/>
-      <c r="T34" s="279"/>
-      <c r="U34" s="279"/>
-      <c r="V34" s="279"/>
-      <c r="W34" s="279"/>
-      <c r="X34" s="279"/>
-      <c r="Y34" s="279"/>
-      <c r="Z34" s="279"/>
-      <c r="AA34" s="279"/>
-      <c r="AB34" s="279"/>
-      <c r="AC34" s="279"/>
-      <c r="AD34" s="279"/>
+      <c r="A34" s="312"/>
+      <c r="B34" s="285"/>
+      <c r="C34" s="285"/>
+      <c r="D34" s="285"/>
+      <c r="E34" s="285"/>
+      <c r="F34" s="285"/>
+      <c r="G34" s="285"/>
+      <c r="H34" s="285"/>
+      <c r="I34" s="285"/>
+      <c r="J34" s="285"/>
+      <c r="K34" s="285"/>
+      <c r="L34" s="285"/>
+      <c r="M34" s="285"/>
+      <c r="N34" s="285"/>
+      <c r="O34" s="285"/>
+      <c r="P34" s="285"/>
+      <c r="Q34" s="285"/>
+      <c r="R34" s="285"/>
+      <c r="S34" s="285"/>
+      <c r="T34" s="285"/>
+      <c r="U34" s="285"/>
+      <c r="V34" s="285"/>
+      <c r="W34" s="285"/>
+      <c r="X34" s="285"/>
+      <c r="Y34" s="285"/>
+      <c r="Z34" s="285"/>
+      <c r="AA34" s="285"/>
+      <c r="AB34" s="285"/>
+      <c r="AC34" s="285"/>
+      <c r="AD34" s="285"/>
     </row>
     <row r="35" spans="1:31" ht="18" customHeight="1">
-      <c r="A35" s="304"/>
-      <c r="B35" s="279"/>
-      <c r="C35" s="279"/>
-      <c r="D35" s="279"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="279"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279"/>
-      <c r="K35" s="279"/>
-      <c r="L35" s="279"/>
-      <c r="M35" s="279"/>
-      <c r="N35" s="279"/>
-      <c r="O35" s="279"/>
-      <c r="P35" s="279"/>
-      <c r="Q35" s="279"/>
-      <c r="R35" s="279"/>
-      <c r="S35" s="279"/>
-      <c r="T35" s="279"/>
-      <c r="U35" s="279"/>
-      <c r="V35" s="279"/>
-      <c r="W35" s="279"/>
-      <c r="X35" s="279"/>
-      <c r="Y35" s="279"/>
-      <c r="Z35" s="279"/>
-      <c r="AA35" s="279"/>
-      <c r="AB35" s="279"/>
-      <c r="AC35" s="279"/>
-      <c r="AD35" s="279"/>
+      <c r="A35" s="312"/>
+      <c r="B35" s="285"/>
+      <c r="C35" s="285"/>
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="285"/>
+      <c r="G35" s="285"/>
+      <c r="H35" s="285"/>
+      <c r="I35" s="285"/>
+      <c r="J35" s="285"/>
+      <c r="K35" s="285"/>
+      <c r="L35" s="285"/>
+      <c r="M35" s="285"/>
+      <c r="N35" s="285"/>
+      <c r="O35" s="285"/>
+      <c r="P35" s="285"/>
+      <c r="Q35" s="285"/>
+      <c r="R35" s="285"/>
+      <c r="S35" s="285"/>
+      <c r="T35" s="285"/>
+      <c r="U35" s="285"/>
+      <c r="V35" s="285"/>
+      <c r="W35" s="285"/>
+      <c r="X35" s="285"/>
+      <c r="Y35" s="285"/>
+      <c r="Z35" s="285"/>
+      <c r="AA35" s="285"/>
+      <c r="AB35" s="285"/>
+      <c r="AC35" s="285"/>
+      <c r="AD35" s="285"/>
     </row>
     <row r="36" spans="1:31" ht="24.75" customHeight="1">
-      <c r="A36" s="305" t="s">
+      <c r="A36" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="305"/>
-      <c r="C36" s="305"/>
-      <c r="D36" s="305"/>
-      <c r="E36" s="305"/>
-      <c r="F36" s="305"/>
-      <c r="G36" s="305"/>
-      <c r="H36" s="305"/>
-      <c r="I36" s="305"/>
-      <c r="J36" s="305"/>
-      <c r="K36" s="305"/>
-      <c r="L36" s="305"/>
-      <c r="M36" s="305"/>
-      <c r="N36" s="305"/>
-      <c r="O36" s="305"/>
-      <c r="P36" s="305"/>
-      <c r="Q36" s="305"/>
-      <c r="R36" s="305"/>
-      <c r="S36" s="305"/>
-      <c r="T36" s="305"/>
-      <c r="U36" s="305"/>
-      <c r="V36" s="305"/>
-      <c r="W36" s="305"/>
-      <c r="X36" s="305"/>
-      <c r="Y36" s="305"/>
-      <c r="Z36" s="305"/>
-      <c r="AA36" s="305"/>
-      <c r="AB36" s="305"/>
-      <c r="AC36" s="305"/>
-      <c r="AD36" s="305"/>
+      <c r="B36" s="313"/>
+      <c r="C36" s="313"/>
+      <c r="D36" s="313"/>
+      <c r="E36" s="313"/>
+      <c r="F36" s="313"/>
+      <c r="G36" s="313"/>
+      <c r="H36" s="313"/>
+      <c r="I36" s="313"/>
+      <c r="J36" s="313"/>
+      <c r="K36" s="313"/>
+      <c r="L36" s="313"/>
+      <c r="M36" s="313"/>
+      <c r="N36" s="313"/>
+      <c r="O36" s="313"/>
+      <c r="P36" s="313"/>
+      <c r="Q36" s="313"/>
+      <c r="R36" s="313"/>
+      <c r="S36" s="313"/>
+      <c r="T36" s="313"/>
+      <c r="U36" s="313"/>
+      <c r="V36" s="313"/>
+      <c r="W36" s="313"/>
+      <c r="X36" s="313"/>
+      <c r="Y36" s="313"/>
+      <c r="Z36" s="313"/>
+      <c r="AA36" s="313"/>
+      <c r="AB36" s="313"/>
+      <c r="AC36" s="313"/>
+      <c r="AD36" s="313"/>
     </row>
     <row r="37" spans="1:31" ht="16.5" customHeight="1">
       <c r="A37" s="43"/>
@@ -6278,171 +7020,171 @@
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
-      <c r="AB37" s="306" t="s">
+      <c r="AB37" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="AC37" s="307"/>
-      <c r="AD37" s="307"/>
+      <c r="AC37" s="315"/>
+      <c r="AD37" s="315"/>
     </row>
     <row r="38" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A38" s="263"/>
-      <c r="B38" s="263"/>
-      <c r="C38" s="264"/>
-      <c r="D38" s="265"/>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="262"/>
-      <c r="H38" s="266"/>
-      <c r="I38" s="262"/>
-      <c r="J38" s="266"/>
-      <c r="K38" s="262"/>
-      <c r="L38" s="265"/>
-      <c r="M38" s="261"/>
-      <c r="N38" s="261"/>
-      <c r="O38" s="261"/>
-      <c r="P38" s="261"/>
-      <c r="Q38" s="261"/>
-      <c r="R38" s="261"/>
-      <c r="S38" s="261"/>
-      <c r="T38" s="261"/>
-      <c r="U38" s="261"/>
-      <c r="V38" s="261"/>
-      <c r="W38" s="261"/>
-      <c r="X38" s="261"/>
-      <c r="Y38" s="261"/>
-      <c r="Z38" s="261"/>
-      <c r="AA38" s="262"/>
-      <c r="AB38" s="274"/>
-      <c r="AC38" s="275"/>
-      <c r="AD38" s="275"/>
+      <c r="A38" s="271"/>
+      <c r="B38" s="271"/>
+      <c r="C38" s="272"/>
+      <c r="D38" s="273"/>
+      <c r="E38" s="269"/>
+      <c r="F38" s="269"/>
+      <c r="G38" s="270"/>
+      <c r="H38" s="274"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="274"/>
+      <c r="K38" s="270"/>
+      <c r="L38" s="273"/>
+      <c r="M38" s="269"/>
+      <c r="N38" s="269"/>
+      <c r="O38" s="269"/>
+      <c r="P38" s="269"/>
+      <c r="Q38" s="269"/>
+      <c r="R38" s="269"/>
+      <c r="S38" s="269"/>
+      <c r="T38" s="269"/>
+      <c r="U38" s="269"/>
+      <c r="V38" s="269"/>
+      <c r="W38" s="269"/>
+      <c r="X38" s="269"/>
+      <c r="Y38" s="269"/>
+      <c r="Z38" s="269"/>
+      <c r="AA38" s="270"/>
+      <c r="AB38" s="286"/>
+      <c r="AC38" s="287"/>
+      <c r="AD38" s="287"/>
     </row>
     <row r="39" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A39" s="263"/>
-      <c r="B39" s="263"/>
-      <c r="C39" s="264"/>
-      <c r="D39" s="265"/>
-      <c r="E39" s="261"/>
-      <c r="F39" s="261"/>
-      <c r="G39" s="262"/>
-      <c r="H39" s="266"/>
-      <c r="I39" s="262"/>
-      <c r="J39" s="266"/>
-      <c r="K39" s="262"/>
-      <c r="L39" s="265"/>
-      <c r="M39" s="261"/>
-      <c r="N39" s="261"/>
-      <c r="O39" s="261"/>
-      <c r="P39" s="261"/>
-      <c r="Q39" s="261"/>
-      <c r="R39" s="261"/>
-      <c r="S39" s="261"/>
-      <c r="T39" s="261"/>
-      <c r="U39" s="261"/>
-      <c r="V39" s="261"/>
-      <c r="W39" s="261"/>
-      <c r="X39" s="261"/>
-      <c r="Y39" s="261"/>
-      <c r="Z39" s="261"/>
-      <c r="AA39" s="262"/>
-      <c r="AB39" s="274"/>
-      <c r="AC39" s="275"/>
-      <c r="AD39" s="275"/>
+      <c r="A39" s="271"/>
+      <c r="B39" s="271"/>
+      <c r="C39" s="272"/>
+      <c r="D39" s="273"/>
+      <c r="E39" s="269"/>
+      <c r="F39" s="269"/>
+      <c r="G39" s="270"/>
+      <c r="H39" s="274"/>
+      <c r="I39" s="270"/>
+      <c r="J39" s="274"/>
+      <c r="K39" s="270"/>
+      <c r="L39" s="273"/>
+      <c r="M39" s="269"/>
+      <c r="N39" s="269"/>
+      <c r="O39" s="269"/>
+      <c r="P39" s="269"/>
+      <c r="Q39" s="269"/>
+      <c r="R39" s="269"/>
+      <c r="S39" s="269"/>
+      <c r="T39" s="269"/>
+      <c r="U39" s="269"/>
+      <c r="V39" s="269"/>
+      <c r="W39" s="269"/>
+      <c r="X39" s="269"/>
+      <c r="Y39" s="269"/>
+      <c r="Z39" s="269"/>
+      <c r="AA39" s="270"/>
+      <c r="AB39" s="286"/>
+      <c r="AC39" s="287"/>
+      <c r="AD39" s="287"/>
     </row>
     <row r="40" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A40" s="263"/>
-      <c r="B40" s="263"/>
-      <c r="C40" s="264"/>
-      <c r="D40" s="265"/>
-      <c r="E40" s="261"/>
-      <c r="F40" s="261"/>
-      <c r="G40" s="262"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="262"/>
-      <c r="J40" s="266"/>
-      <c r="K40" s="262"/>
-      <c r="L40" s="265"/>
-      <c r="M40" s="261"/>
-      <c r="N40" s="261"/>
-      <c r="O40" s="261"/>
-      <c r="P40" s="261"/>
-      <c r="Q40" s="261"/>
-      <c r="R40" s="261"/>
-      <c r="S40" s="261"/>
-      <c r="T40" s="261"/>
-      <c r="U40" s="261"/>
-      <c r="V40" s="261"/>
-      <c r="W40" s="261"/>
-      <c r="X40" s="261"/>
-      <c r="Y40" s="261"/>
-      <c r="Z40" s="261"/>
-      <c r="AA40" s="262"/>
-      <c r="AB40" s="274"/>
-      <c r="AC40" s="275"/>
-      <c r="AD40" s="275"/>
+      <c r="A40" s="271"/>
+      <c r="B40" s="271"/>
+      <c r="C40" s="272"/>
+      <c r="D40" s="273"/>
+      <c r="E40" s="269"/>
+      <c r="F40" s="269"/>
+      <c r="G40" s="270"/>
+      <c r="H40" s="274"/>
+      <c r="I40" s="270"/>
+      <c r="J40" s="274"/>
+      <c r="K40" s="270"/>
+      <c r="L40" s="273"/>
+      <c r="M40" s="269"/>
+      <c r="N40" s="269"/>
+      <c r="O40" s="269"/>
+      <c r="P40" s="269"/>
+      <c r="Q40" s="269"/>
+      <c r="R40" s="269"/>
+      <c r="S40" s="269"/>
+      <c r="T40" s="269"/>
+      <c r="U40" s="269"/>
+      <c r="V40" s="269"/>
+      <c r="W40" s="269"/>
+      <c r="X40" s="269"/>
+      <c r="Y40" s="269"/>
+      <c r="Z40" s="269"/>
+      <c r="AA40" s="270"/>
+      <c r="AB40" s="286"/>
+      <c r="AC40" s="287"/>
+      <c r="AD40" s="287"/>
     </row>
     <row r="41" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A41" s="263"/>
-      <c r="B41" s="263"/>
-      <c r="C41" s="264"/>
-      <c r="D41" s="260"/>
-      <c r="E41" s="296"/>
-      <c r="F41" s="296"/>
-      <c r="G41" s="297"/>
-      <c r="H41" s="266"/>
-      <c r="I41" s="262"/>
-      <c r="J41" s="266"/>
-      <c r="K41" s="262"/>
-      <c r="L41" s="260"/>
-      <c r="M41" s="261"/>
-      <c r="N41" s="261"/>
-      <c r="O41" s="261"/>
-      <c r="P41" s="261"/>
-      <c r="Q41" s="261"/>
-      <c r="R41" s="261"/>
-      <c r="S41" s="261"/>
-      <c r="T41" s="261"/>
-      <c r="U41" s="261"/>
-      <c r="V41" s="261"/>
-      <c r="W41" s="261"/>
-      <c r="X41" s="261"/>
-      <c r="Y41" s="261"/>
-      <c r="Z41" s="261"/>
-      <c r="AA41" s="262"/>
-      <c r="AB41" s="274"/>
-      <c r="AC41" s="275"/>
-      <c r="AD41" s="275"/>
+      <c r="A41" s="271"/>
+      <c r="B41" s="271"/>
+      <c r="C41" s="272"/>
+      <c r="D41" s="268"/>
+      <c r="E41" s="304"/>
+      <c r="F41" s="304"/>
+      <c r="G41" s="305"/>
+      <c r="H41" s="274"/>
+      <c r="I41" s="270"/>
+      <c r="J41" s="274"/>
+      <c r="K41" s="270"/>
+      <c r="L41" s="268"/>
+      <c r="M41" s="269"/>
+      <c r="N41" s="269"/>
+      <c r="O41" s="269"/>
+      <c r="P41" s="269"/>
+      <c r="Q41" s="269"/>
+      <c r="R41" s="269"/>
+      <c r="S41" s="269"/>
+      <c r="T41" s="269"/>
+      <c r="U41" s="269"/>
+      <c r="V41" s="269"/>
+      <c r="W41" s="269"/>
+      <c r="X41" s="269"/>
+      <c r="Y41" s="269"/>
+      <c r="Z41" s="269"/>
+      <c r="AA41" s="270"/>
+      <c r="AB41" s="286"/>
+      <c r="AC41" s="287"/>
+      <c r="AD41" s="287"/>
     </row>
     <row r="42" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A42" s="263"/>
-      <c r="B42" s="263"/>
-      <c r="C42" s="264"/>
-      <c r="D42" s="260"/>
-      <c r="E42" s="261"/>
-      <c r="F42" s="261"/>
-      <c r="G42" s="262"/>
-      <c r="H42" s="266"/>
-      <c r="I42" s="262"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="262"/>
-      <c r="L42" s="260"/>
-      <c r="M42" s="261"/>
-      <c r="N42" s="261"/>
-      <c r="O42" s="261"/>
-      <c r="P42" s="261"/>
-      <c r="Q42" s="261"/>
-      <c r="R42" s="261"/>
-      <c r="S42" s="261"/>
-      <c r="T42" s="261"/>
-      <c r="U42" s="261"/>
-      <c r="V42" s="261"/>
-      <c r="W42" s="261"/>
-      <c r="X42" s="261"/>
-      <c r="Y42" s="261"/>
-      <c r="Z42" s="261"/>
-      <c r="AA42" s="262"/>
-      <c r="AB42" s="274"/>
-      <c r="AC42" s="275"/>
-      <c r="AD42" s="275"/>
+      <c r="A42" s="271"/>
+      <c r="B42" s="271"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="268"/>
+      <c r="E42" s="269"/>
+      <c r="F42" s="269"/>
+      <c r="G42" s="270"/>
+      <c r="H42" s="274"/>
+      <c r="I42" s="270"/>
+      <c r="J42" s="274"/>
+      <c r="K42" s="270"/>
+      <c r="L42" s="268"/>
+      <c r="M42" s="269"/>
+      <c r="N42" s="269"/>
+      <c r="O42" s="269"/>
+      <c r="P42" s="269"/>
+      <c r="Q42" s="269"/>
+      <c r="R42" s="269"/>
+      <c r="S42" s="269"/>
+      <c r="T42" s="269"/>
+      <c r="U42" s="269"/>
+      <c r="V42" s="269"/>
+      <c r="W42" s="269"/>
+      <c r="X42" s="269"/>
+      <c r="Y42" s="269"/>
+      <c r="Z42" s="269"/>
+      <c r="AA42" s="270"/>
+      <c r="AB42" s="286"/>
+      <c r="AC42" s="287"/>
+      <c r="AD42" s="287"/>
       <c r="AE42" s="114"/>
     </row>
     <row r="43" spans="1:31" ht="16.5" customHeight="1">
@@ -6588,7 +7330,6 @@
     </row>
   </sheetData>
   <mergeCells count="176">
-    <mergeCell ref="C27:P27"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="W5:AA5"/>
     <mergeCell ref="A32:AD32"/>
@@ -6612,16 +7353,6 @@
     <mergeCell ref="V13:X13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A33:AD33"/>
-    <mergeCell ref="A36:AD36"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="A34:AD34"/>
-    <mergeCell ref="A35:AD35"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="L38:AA38"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:AA40"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="S14:U14"/>
@@ -6636,10 +7367,6 @@
     <mergeCell ref="V16:X16"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="S2:V2"/>
@@ -6660,22 +7387,27 @@
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A33:AD33"/>
+    <mergeCell ref="A36:AD36"/>
+    <mergeCell ref="AB37:AD37"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="S17:U17"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A34:AD34"/>
+    <mergeCell ref="A35:AD35"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="L38:AA38"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:AA40"/>
+    <mergeCell ref="C27:P27"/>
     <mergeCell ref="V17:X17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
@@ -6694,6 +7426,10 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="P19:R19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
     <mergeCell ref="S19:U19"/>
     <mergeCell ref="V19:X19"/>
     <mergeCell ref="D20:F20"/>
@@ -6708,6 +7444,12 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="P23:R23"/>
     <mergeCell ref="P22:R22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="Y20:AA20"/>
     <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="Y22:AA22"/>
@@ -6774,7 +7516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
@@ -6815,8 +7557,8 @@
       <c r="K1" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="324"/>
-      <c r="M1" s="325"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="333"/>
       <c r="N1" s="68"/>
       <c r="O1" s="80"/>
       <c r="P1" s="81"/>
@@ -6864,8 +7606,8 @@
       <c r="N3" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="319"/>
-      <c r="P3" s="320"/>
+      <c r="O3" s="327"/>
+      <c r="P3" s="328"/>
     </row>
     <row r="4" spans="1:16" ht="18.75">
       <c r="A4" s="129"/>
@@ -6878,12 +7620,12 @@
       <c r="H4" s="5"/>
       <c r="I4" s="29"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="326"/>
-      <c r="L4" s="327"/>
-      <c r="M4" s="328"/>
-      <c r="N4" s="321"/>
-      <c r="O4" s="322"/>
-      <c r="P4" s="323"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="335"/>
+      <c r="M4" s="336"/>
+      <c r="N4" s="329"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="331"/>
     </row>
     <row r="5" spans="1:16" ht="15">
       <c r="A5" s="34" t="s">
@@ -6963,27 +7705,27 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A9" s="251" t="s">
+      <c r="A9" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="251" t="s">
+      <c r="B9" s="261"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="253"/>
-      <c r="G9" s="252"/>
-      <c r="H9" s="251" t="s">
+      <c r="F9" s="261"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="253"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="242" t="s">
+      <c r="I9" s="261"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="243"/>
-      <c r="M9" s="329"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="337"/>
       <c r="N9" s="63" t="s">
         <v>57</v>
       </c>
@@ -6995,14 +7737,14 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A10" s="317" t="s">
+      <c r="A10" s="325" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="318"/>
-      <c r="C10" s="251" t="s">
+      <c r="B10" s="326"/>
+      <c r="C10" s="260" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="252"/>
+      <c r="D10" s="262"/>
       <c r="E10" s="61" t="s">
         <v>60</v>
       </c>
@@ -7012,14 +7754,14 @@
       <c r="G10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="251" t="s">
+      <c r="H10" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="253"/>
-      <c r="J10" s="253"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
-      <c r="M10" s="330"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="261"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="338"/>
       <c r="N10" s="72" t="s">
         <v>81</v>
       </c>
